--- a/Documentación/Información.xlsx
+++ b/Documentación/Información.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="4935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="4935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Diego Martinez</t>
   </si>
@@ -102,12 +102,50 @@
   <si>
     <t>Desarrollador</t>
   </si>
+  <si>
+    <t>jefe de Proyecto</t>
+  </si>
+  <si>
+    <t>jefe de Producto</t>
+  </si>
+  <si>
+    <t>documentacion</t>
+  </si>
+  <si>
+    <t>administracion y Control</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Lider Desarrollo</t>
+  </si>
+  <si>
+    <t>Administracion Base datos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Presentación del equipo y de las herramientas a utilizar</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +178,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -211,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -244,7 +297,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -580,57 +639,92 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
+      <c r="A3" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -667,7 +761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1090,11 +1186,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -1184,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>6</v>
@@ -1192,8 +1291,8 @@
       <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>8</v>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>9</v>
@@ -1502,6 +1601,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1509,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
